--- a/document/BVN-Testcase-Control_3D_Viewer_By_Gesture-20200914.xlsx
+++ b/document/BVN-Testcase-Control_3D_Viewer_By_Gesture-20200914.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Result 2020-09-14" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Result 2020-09-14'!$B$6:$I$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Result 2020-09-14'!$B$6:$I$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>Case</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Test tích hợp/ Danh mục cần test</t>
   </si>
   <si>
-    <t>Hành vi bình thường của người dùng và chức năng thao tác trên 3DViewer bằng cử chỉ</t>
-  </si>
-  <si>
     <t>Huy</t>
   </si>
   <si>
@@ -114,12 +111,6 @@
     <t>Điều khiển 3DViewer bằng cử chỉ</t>
   </si>
   <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>1-8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sử dụng cử chỉ để điều khiển các chức thay thế cho bàn phím </t>
   </si>
   <si>
@@ -132,132 +123,152 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>1/ Webcam xuất hiện ở góc phải
-2/ Thông báo nếu có lỗi</t>
-  </si>
-  <si>
-    <t>1/Thêm cờ kích hoạt "mode_control_by_gesture=True" vào file 3dviewer.ini
+    <t xml:space="preserve">Đóng kết với sever nhận dạng </t>
+  </si>
+  <si>
+    <t>1/ Đèn báo kết nối chuyển trắng
+2/ Nút Start và ô nhập bật sáng</t>
+  </si>
+  <si>
+    <t>Hành vi bình thường của người dùng và chức năng thao tác trên 3DViewer bằng cử chỉ
+(Server Python đã được bật trước đó)</t>
+  </si>
+  <si>
+    <t>Hành vi bình thường của người dùng và chức năng thao tác trên 3DViewer bằng cử chỉ
+(Server Python chưa được bật)</t>
+  </si>
+  <si>
+    <t>1/ Tại file 3dviewer.ini chỉnh sửa "mode_control_by_gesture=True"
 2/ Mở ứng dụng 3DViewer</t>
   </si>
   <si>
-    <t xml:space="preserve">1/ Mở ứng dụng 3DViewer
-2/ Chọn chức năng "Control By Gesture" ở TOOLKIT MENU
-3/ Bật chế độ thông qua nút ON_OFF </t>
-  </si>
-  <si>
-    <t>Kích hoạt chức năng bằng  phím tắt khi server chưa được bật</t>
-  </si>
-  <si>
-    <t>Kích hoạt chức năng bằng file 3dviewer.ini khi server đã được bật</t>
-  </si>
-  <si>
-    <t>Kích hoạt chức năng bằng tay khi server đã được bật</t>
-  </si>
-  <si>
-    <t>Kích hoạt chức năng bằng  phím tắt khi server đã được bật</t>
-  </si>
-  <si>
-    <t>1/ Webcam được bật
-2/ Không có lỗi</t>
-  </si>
-  <si>
-    <t>1/ Kết nối thành công
-1/Kết nối thất bại</t>
+    <t>1/ Webcam xuất hiện ở góc phải cửa số 3DViewer
+2/ Xuất hiện thông báo</t>
+  </si>
+  <si>
+    <t>1/ Webcam xuất hiện ở góc phải cửa số 3DViewer
+2/ Có thể bật tính năng
+3/ Có thể tăt tính năng</t>
+  </si>
+  <si>
+    <t>Bật /Tắt tính năng Control By Gesture</t>
+  </si>
+  <si>
+    <t>Bật tính năng Control By Gesture với 3dviewer.ini</t>
+  </si>
+  <si>
+    <t>Bật/Tắt tính năng Control By Gesture bằng phím tắt</t>
   </si>
   <si>
     <t>1/ Mở ứng dụng 3DViewer
-2/ Chọn chức năng "Control By Gesture" ở TOOLKIT MENU
-3/ Bật chế độ thông qua nút ON_OFF 
-4/ Điền thông tin về IP và Port 
-5/ Nhấn nút Start</t>
+2/ Bật tính năng Control By Gesture (ON)
+3/ Tắt tính năng Control By Gesture (OFF)</t>
+  </si>
+  <si>
+    <t>1/ Mở ứng dụng 3DViewer
+2/ Nhấn phím "G" để bật tính năng Control By Gesture
+3/ Nhấn lại phím "G" để tắt tính năng Control By Gesture</t>
+  </si>
+  <si>
+    <t>1/ Mở ứng dụng 3DViewer
+2/ Bật tính năng Control By Gesture (ON)
+3/ Nhấn Stop để tắt kết nối mặc định
+3/ Điền thông tin về IP và Port 
+4/ Nhấn nút Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/ Chọn tính năng Control By Gesture (ON)
+2/ Nhấn Stop để tắt kết nối mặc định
+</t>
+  </si>
+  <si>
+    <t>1/ Webcam xuất hiện ở góc phải cửa số 3DViewer
+2/ Xuất hiện thông báo
+3/ Đèn báo kết nối chuyển đỏ</t>
+  </si>
+  <si>
+    <t>1/ Webcam xuất hiện ở góc phải cửa số 3DViewer
+2/ Có thể bật tính năng --&gt; Thông báo lỗi trên màn hình
+3/ Có thể tăt tính năng</t>
+  </si>
+  <si>
+    <t>1/ Webcam xuất hiện ở góc phải cửa số 3DViewer
+2/ Có thể bật tính năng--&gt; Thông báo lỗi trên màn hình
+3/ Có thể tăt tính năng</t>
+  </si>
+  <si>
+    <t>1/Đèn báo kết nối chuyển đỏ
+2/ Xuất hiện thông báo</t>
   </si>
   <si>
     <t>1/Đèn báo kết nối chuyển xanh
 2/ Nút và ô nhập bị vô hiệu hóa
-3/ Thông báo kết thành công
-1/Đèn báo kết nối chuyển đỏ
-2/ Thông báo kết thành công</t>
-  </si>
-  <si>
-    <t>1/ Mở ứng dụng 3DViewer
-2/ Nhấn phím "G" để bật chế độ điều khiển bằng cử chỉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/ Webcam được bật
-2/ Thông báo lỗi </t>
-  </si>
-  <si>
-    <t>1/ Hình ảnh vẫn chưa đồng đều
-2/ Quá nhiều cử chỉ để nhớ</t>
-  </si>
-  <si>
-    <t>1/ Bảng Help Gesture xuất hiện
-1/Bảng Help Gesture xuất hiện
-2/ Kéo thả chuột lên xuống</t>
+3/ Xuất hiện thông báo</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
   </si>
   <si>
     <t xml:space="preserve">1/ Mở ứng dụng 3DViewer
-2/ Chọn chức năng "Help Gesture" ở TOOLKIT MENU
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/ Webcam tắt
-2/ Nút ON_OFF về chế độ tắt
-</t>
-  </si>
-  <si>
-    <t>1/ Chức năng điều khiển bằng cử chỉ được tắt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đóng kết với sever nhận dạng </t>
-  </si>
-  <si>
-    <t>1/ Chọn chức năng "Control By Gesture" ở TOOLKIT MENU
-2/ Kích vào nút ON_OFF đang ở chế độ bật để bật</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tắt chế độ điều khiển bằng cử chỉ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/ Chọn chức năng "Control By Gesture" ở TOOLKIT MENU
-2/ Kích vào nút Stop đã trong bảng điều khiển
-</t>
-  </si>
-  <si>
-    <t>1/ Đèn báo kết nối chuyển trắng
-2/ Nút Start và ô nhập bật sáng</t>
-  </si>
-  <si>
-    <t>1/ Kết nối đã được đóng</t>
-  </si>
-  <si>
-    <t>Các hình ảnh cử chỉ đã được quy định trước đó, nên cố gắng biểu diễn gần giống nhất có thể và không nên sáng tạo cử chỉ để điều khiển ứng dụng 3DViewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/ Webcam xuất hiện ở góc phải
+2/ Bật  tính năng Control By Gesture (ON)
+3/ Sử dụng tay trái và biểu diễn cử chỉ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/ Webcam xuất hiện ở góc phải cửa sổ 3DViewer
 2/ Sử dụng cử chỉ để điều khiển 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1/ Mở ứng dụng 3DViewer
-2/ Chọn chức năng "Control By Gesture" ở TOOLKIT MENU
-3/ Bật nút ON_OFF 
-4/ Điền thông tin về IP và Port vào ô TextField tương ứng
-5/ Nhấn nút Start
-6/ Sử dụng tay trái và biểu diễn cử chỉ </t>
-  </si>
-  <si>
-    <t>1/ 3DViewer được điều khiển bằng cử chỉ</t>
-  </si>
-  <si>
-    <t>1/ Sử dụng cử chỉ có hơi khó kiếm soát hơn chuột</t>
-  </si>
-  <si>
-    <t>1/ Khá là nhanh khi lùi lại bảng điều khiển trước đó trong TOOLKIT MENU</t>
-  </si>
-  <si>
-    <t>1/ Webcam được bật
-2/ Thông báo "Success"</t>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/ Webcam xuất hiện ở góc phải cửa số 3DViewer
+2/ Sử dụng cử chỉ để điều khiển 
+</t>
+  </si>
+  <si>
+    <t>1/ Khá nhanh khi lùi lại bảng điều khiển trước đó trong TOOLKIT MENU</t>
+  </si>
+  <si>
+    <t>Các hình ảnh cử chỉ đã được quy định trước đó, nên cố gắng biểu diễn gần giống nhất có thể và không sáng tạo cử chỉ để điều khiển ứng dụng 3DViewer</t>
+  </si>
+  <si>
+    <t>1/ Mở ứng dụng 3DViewer
+2/ Chọn tính năng Help Gesture 
+3/ Kéo thả chuột lên xuống để xem xem nội dung Help Gesture</t>
+  </si>
+  <si>
+    <t>1/ Bảng Help Gesture xuất hiện
+2/ Có thể xem nội dung Help Gesture</t>
+  </si>
+  <si>
+    <t>1/ Mở ứng dụng 3DViewer
+2/ Bật tính năng Control By Gesture (ON)
+3/ Nhấn Stop để tắt kết nối mặc định
+3/ Điền thông tin về IP=127.0.0.1 và Port=3000 
+4/ Nhấn nút Start</t>
+  </si>
+  <si>
+    <t>1/ Đèn Connect Status chuyển sang trắng
+2/ Có thể nhập giá trị IP và Port mới</t>
+  </si>
+  <si>
+    <t>Bật /Tắt tính năng Control By Gesture sử dụng chuột</t>
+  </si>
+  <si>
+    <t>Bật/Tắt tính năng Control By Gesture bằng phím tắt "G"</t>
+  </si>
+  <si>
+    <t>Bật tính năng Control By Gesture với tệp 3dviewer.ini</t>
   </si>
 </sst>
 </file>
@@ -579,15 +590,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
+      <xdr:colOff>225238</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>154081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1817370</xdr:colOff>
+      <xdr:colOff>1109158</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>554355</xdr:rowOff>
+      <xdr:rowOff>527461</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -603,7 +614,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14697075" y="3552825"/>
+          <a:off x="13977097" y="3811681"/>
           <a:ext cx="883920" cy="373380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -616,13 +627,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>836295</xdr:colOff>
+      <xdr:colOff>172907</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>699135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1887855</xdr:colOff>
+      <xdr:colOff>1224467</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1163955</xdr:rowOff>
     </xdr:to>
@@ -633,7 +644,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14599920" y="4070985"/>
+          <a:off x="13924766" y="4356735"/>
           <a:ext cx="1051560" cy="464820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -643,11 +654,7 @@
           <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -686,15 +693,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>914401</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>708658</xdr:rowOff>
+      <xdr:colOff>1586754</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>681764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1965960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1196340</xdr:rowOff>
+      <xdr:colOff>2638313</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1169446</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -703,7 +710,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14676121" y="11925298"/>
+          <a:off x="15338613" y="4339364"/>
           <a:ext cx="1051559" cy="487682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -750,15 +757,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>1521759</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1939835</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>624840</xdr:rowOff>
+      <xdr:colOff>2585294</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>580017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -774,7 +781,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14638020" y="11391900"/>
+          <a:off x="15273618" y="3788037"/>
           <a:ext cx="1063535" cy="449580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -784,6 +791,200 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>225238</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154081</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="883920" cy="373380"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="11321" t="20482" r="15724" b="20481"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13977097" y="3811681"/>
+          <a:ext cx="883920" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>172907</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>699135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1224467</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1163955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13924766" y="4356735"/>
+          <a:ext cx="1051560" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Nút</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ON_OFF đang được tắt</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1586754</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>681764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2638313</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1169446</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15338613" y="4339364"/>
+          <a:ext cx="1051559" cy="487682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Nút</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ON_OFF đang được bật</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1521759</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>130437</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1063535" cy="449580"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="6250" t="11250" r="6517" b="15000"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15273618" y="3788037"/>
+          <a:ext cx="1063535" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1050,13 +1251,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1341,7 @@
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
       <c r="J4" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -1195,13 +1396,13 @@
       </c>
       <c r="I7" s="43"/>
     </row>
-    <row r="8" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="10" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="27">
         <v>1</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -1215,27 +1416,25 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>64</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F9" s="20"/>
       <c r="G9" s="22" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="22"/>
     </row>
@@ -1244,74 +1443,68 @@
         <v>6</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F10" s="20"/>
       <c r="G10" s="22" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="87" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F11" s="20"/>
       <c r="G11" s="22" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>46</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F12" s="19"/>
       <c r="G12" s="22" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:14" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18" t="s">
         <v>9</v>
       </c>
@@ -1319,217 +1512,253 @@
         <v>25</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>42</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="35"/>
       <c r="G13" s="22" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="1:14" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="52.2" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="15" spans="1:14" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" s="10" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="27">
+        <v>2</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>57</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="20"/>
       <c r="G16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="2:14" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="2:14" ht="87" x14ac:dyDescent="0.3">
+      <c r="B18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="2:14" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="26">
-        <v>2</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="2:14" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="D19" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>62</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F19" s="19"/>
       <c r="G19" s="22" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="2:14" ht="139.19999999999999" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="2:14" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="26">
+        <v>3</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="2:14" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="34" t="s">
+    </row>
+    <row r="23" spans="2:14" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="2:14" ht="87" x14ac:dyDescent="0.3">
+      <c r="B24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="22"/>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="22"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="22"/>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="22"/>
-      <c r="I24" s="22"/>
+      <c r="H24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="18"/>
@@ -1537,8 +1766,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="G25" s="22"/>
       <c r="I25" s="22"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
@@ -1550,20 +1778,14 @@
       <c r="G26" s="22"/>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="37"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="8"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
@@ -1579,16 +1801,17 @@
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="22"/>
-      <c r="I29" s="32"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="33"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="22"/>
       <c r="I30" s="22"/>
     </row>
@@ -1616,69 +1839,67 @@
       <c r="G32" s="22"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="22"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="22"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="25"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="37"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="22"/>
-    </row>
-    <row r="36" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="25"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="18"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="21"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+      <c r="G36" s="22"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="25"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="18"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="21"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
+      <c r="G37" s="22"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="25"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="18"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="21"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+      <c r="G38" s="22"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B39" s="25"/>
       <c r="C39" s="19"/>
       <c r="D39" s="21"/>
@@ -1688,55 +1909,75 @@
       <c r="H39" s="21"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-    </row>
-    <row r="41" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-    </row>
-    <row r="42" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
     </row>
-    <row r="45" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="16"/>
       <c r="C46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
     </row>
-    <row r="47" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="16"/>
       <c r="C47" s="17"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
     </row>
-    <row r="48" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="16"/>
       <c r="C48" s="17"/>
       <c r="E48" s="17"/>
@@ -1862,8 +2103,33 @@
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
     </row>
+    <row r="69" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="C15:I15"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -1876,12 +2142,15 @@
     <mergeCell ref="I6:I7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17 G35:H39 G17:G18 G25:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39:H43 G29:H29 G21:H21">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="91" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="4" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>